--- a/laliga_match_urls.xlsx
+++ b/laliga_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>x</t>
   </si>
@@ -212,6 +212,51 @@
     <t>65</t>
   </si>
   <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/32bb9a67/Athletic-Club-Getafe-August-15-2024-La-Liga</t>
   </si>
   <si>
@@ -405,6 +450,51 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/618988b7/Real-Madrid-Alaves-September-24-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/07598e53/Girona-Rayo-Vallecano-September-25-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/231f83bc/Barcelona-Getafe-September-25-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/94fe3705/Las-Palmas-Real-Betis-September-26-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/aef7cc8d/Espanyol-Villarreal-September-26-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/01197df1/Celta-Vigo-Atletico-Madrid-September-26-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d59e698a/Valladolid-Mallorca-September-27-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c745f73f/Getafe-Alaves-September-28-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/edd88e45/Rayo-Vallecano-Leganes-September-28-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6dfa7503/Real-Sociedad-Valencia-September-28-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d5c58cc9/Osasuna-Barcelona-September-28-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4c283fa8/Celta-Vigo-Girona-September-29-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9b519ed0/Athletic-Club-Sevilla-September-29-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/650b3ea7/Real-Betis-Espanyol-September-29-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0df1f571/El-Derbi-Madrileno-Atletico-Madrid-Real-Madrid-September-29-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3ecbf46e/Villarreal-Las-Palmas-September-30-2024-La-Liga</t>
   </si>
 </sst>
 </file>
@@ -466,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -474,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -482,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -490,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -498,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -506,7 +596,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -514,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +612,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -530,7 +620,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -538,7 +628,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -546,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -554,7 +644,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -562,7 +652,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
@@ -570,7 +660,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -578,7 +668,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17">
@@ -586,7 +676,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
@@ -594,7 +684,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19">
@@ -602,7 +692,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -610,7 +700,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
@@ -618,7 +708,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -626,7 +716,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
@@ -634,7 +724,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
@@ -642,7 +732,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -650,7 +740,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -658,7 +748,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27">
@@ -666,7 +756,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -674,7 +764,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -682,7 +772,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
@@ -690,7 +780,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -698,7 +788,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
@@ -706,7 +796,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -714,7 +804,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
@@ -722,7 +812,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -730,7 +820,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
@@ -738,7 +828,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
@@ -746,7 +836,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -754,7 +844,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
@@ -762,7 +852,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
@@ -770,7 +860,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -778,7 +868,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
@@ -786,7 +876,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43">
@@ -794,7 +884,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44">
@@ -802,7 +892,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45">
@@ -810,7 +900,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
@@ -818,7 +908,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47">
@@ -826,7 +916,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48">
@@ -834,7 +924,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49">
@@ -842,7 +932,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50">
@@ -850,7 +940,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
@@ -858,7 +948,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -866,7 +956,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
@@ -874,7 +964,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54">
@@ -882,7 +972,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
@@ -890,7 +980,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
@@ -898,7 +988,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
@@ -906,7 +996,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58">
@@ -914,7 +1004,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59">
@@ -922,7 +1012,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -930,7 +1020,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61">
@@ -938,7 +1028,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62">
@@ -946,7 +1036,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63">
@@ -954,7 +1044,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="64">
@@ -962,7 +1052,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
     </row>
     <row r="65">
@@ -970,7 +1060,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="66">
@@ -978,7 +1068,127 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/laliga_match_urls.xlsx
+++ b/laliga_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>x</t>
   </si>
@@ -257,6 +257,66 @@
     <t>80</t>
   </si>
   <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/32bb9a67/Athletic-Club-Getafe-August-15-2024-La-Liga</t>
   </si>
   <si>
@@ -495,6 +555,66 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/3ecbf46e/Villarreal-Las-Palmas-September-30-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/18dc29a4/Leganes-Valencia-October-4-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d2dd62e7/Espanyol-Mallorca-October-5-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fdd30e13/Getafe-Osasuna-October-5-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8f767bea/Las-Palmas-Celta-Vigo-October-5-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/59703f58/Valladolid-Rayo-Vallecano-October-5-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9bf91e35/Real-Madrid-Villarreal-October-5-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7d98a38f/Girona-Athletic-Club-October-6-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ba5dd68e/Alaves-Barcelona-October-6-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c9404de2/Sevilla-Real-Betis-October-6-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/069145b6/Real-Sociedad-Atletico-Madrid-October-6-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a0c7186e/Alaves-Valladolid-October-18-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0425fc2d/Athletic-Club-Espanyol-October-19-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5ea3b789/Osasuna-Real-Betis-October-19-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ec18b3aa/Girona-Real-Sociedad-October-19-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/50bf3afb/Celta-Vigo-Real-Madrid-October-19-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/477327f9/Mallorca-Rayo-Vallecano-October-20-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d32fffe0/Atletico-Madrid-Leganes-October-20-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bfba2fd7/Villarreal-Getafe-October-20-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5f73bf47/Barcelona-Sevilla-October-20-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9bb16911/Valencia-Las-Palmas-October-21-2024-La-Liga</t>
   </si>
 </sst>
 </file>
@@ -556,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
@@ -564,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -572,7 +692,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
@@ -580,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
@@ -588,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7">
@@ -596,7 +716,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -604,7 +724,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +732,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -620,7 +740,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
@@ -628,7 +748,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -636,7 +756,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13">
@@ -644,7 +764,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
@@ -652,7 +772,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15">
@@ -660,7 +780,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
@@ -668,7 +788,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17">
@@ -676,7 +796,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18">
@@ -684,7 +804,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19">
@@ -692,7 +812,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20">
@@ -700,7 +820,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
@@ -708,7 +828,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
@@ -716,7 +836,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23">
@@ -724,7 +844,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24">
@@ -732,7 +852,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25">
@@ -740,7 +860,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26">
@@ -748,7 +868,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
@@ -756,7 +876,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
@@ -764,7 +884,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29">
@@ -772,7 +892,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30">
@@ -780,7 +900,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31">
@@ -788,7 +908,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
@@ -796,7 +916,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33">
@@ -804,7 +924,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34">
@@ -812,7 +932,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35">
@@ -820,7 +940,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36">
@@ -828,7 +948,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37">
@@ -836,7 +956,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38">
@@ -844,7 +964,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39">
@@ -852,7 +972,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40">
@@ -860,7 +980,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41">
@@ -868,7 +988,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42">
@@ -876,7 +996,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43">
@@ -884,7 +1004,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44">
@@ -892,7 +1012,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45">
@@ -900,7 +1020,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46">
@@ -908,7 +1028,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47">
@@ -916,7 +1036,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48">
@@ -924,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49">
@@ -932,7 +1052,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50">
@@ -940,7 +1060,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51">
@@ -948,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52">
@@ -956,7 +1076,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53">
@@ -964,7 +1084,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +1092,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55">
@@ -980,7 +1100,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56">
@@ -988,7 +1108,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57">
@@ -996,7 +1116,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58">
@@ -1004,7 +1124,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59">
@@ -1012,7 +1132,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60">
@@ -1020,7 +1140,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61">
@@ -1028,7 +1148,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62">
@@ -1036,7 +1156,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63">
@@ -1044,7 +1164,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64">
@@ -1052,7 +1172,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65">
@@ -1060,7 +1180,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66">
@@ -1068,7 +1188,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67">
@@ -1076,7 +1196,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68">
@@ -1084,7 +1204,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69">
@@ -1092,7 +1212,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70">
@@ -1100,7 +1220,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71">
@@ -1108,7 +1228,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72">
@@ -1116,7 +1236,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73">
@@ -1124,7 +1244,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74">
@@ -1132,7 +1252,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75">
@@ -1140,7 +1260,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76">
@@ -1148,7 +1268,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77">
@@ -1156,7 +1276,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78">
@@ -1164,7 +1284,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79">
@@ -1172,7 +1292,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80">
@@ -1180,7 +1300,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81">
@@ -1188,7 +1308,167 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/laliga_match_urls.xlsx
+++ b/laliga_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
   <si>
     <t>x</t>
   </si>
@@ -317,6 +317,63 @@
     <t>100</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/32bb9a67/Athletic-Club-Getafe-August-15-2024-La-Liga</t>
   </si>
   <si>
@@ -615,6 +672,63 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/9bb16911/Valencia-Las-Palmas-October-21-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/38d25c90/Espanyol-Sevilla-October-25-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/591dbf90/Valladolid-Villarreal-October-26-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/55b7dfaa/Rayo-Vallecano-Alaves-October-26-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9dbc3e14/Las-Palmas-Girona-October-26-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e6bc2844/El-Clasico-Real-Madrid-Barcelona-October-26-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/597f83c1/Leganes-Celta-Vigo-October-27-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f0be0a37/Getafe-Valencia-October-27-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ffc4972d/Real-Betis-Atletico-Madrid-October-27-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/722b1ca2/Real-Sociedad-Osasuna-October-27-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/46815a4a/Mallorca-Athletic-Club-October-28-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/454dc8c7/Alaves-Mallorca-November-1-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/377a6000/Osasuna-Valladolid-November-2-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/12ce04dc/Girona-Leganes-November-2-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/60a46aeb/Atletico-Madrid-Las-Palmas-November-3-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/90cf8629/Barcelona-Espanyol-November-3-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/81dad4eb/Sevilla-Real-Sociedad-November-3-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ef8bf64a/Athletic-Club-Real-Betis-November-3-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/652b900c/Celta-Vigo-Getafe-November-4-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/abe69737/Rayo-Vallecano-Las-Palmas-November-8-2024-La-Liga</t>
   </si>
 </sst>
 </file>
@@ -676,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
@@ -684,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4">
@@ -692,7 +806,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
@@ -700,7 +814,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
@@ -708,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7">
@@ -716,7 +830,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -724,7 +838,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -732,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
@@ -740,7 +854,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -748,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
@@ -756,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -764,7 +878,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
@@ -772,7 +886,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
@@ -780,7 +894,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
@@ -788,7 +902,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17">
@@ -796,7 +910,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
@@ -804,7 +918,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +926,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20">
@@ -820,7 +934,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21">
@@ -828,7 +942,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22">
@@ -836,7 +950,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23">
@@ -844,7 +958,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24">
@@ -852,7 +966,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25">
@@ -860,7 +974,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26">
@@ -868,7 +982,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27">
@@ -876,7 +990,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
@@ -884,7 +998,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29">
@@ -892,7 +1006,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30">
@@ -900,7 +1014,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31">
@@ -908,7 +1022,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32">
@@ -916,7 +1030,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33">
@@ -924,7 +1038,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34">
@@ -932,7 +1046,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35">
@@ -940,7 +1054,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36">
@@ -948,7 +1062,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37">
@@ -956,7 +1070,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38">
@@ -964,7 +1078,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39">
@@ -972,7 +1086,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40">
@@ -980,7 +1094,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41">
@@ -988,7 +1102,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42">
@@ -996,7 +1110,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43">
@@ -1004,7 +1118,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44">
@@ -1012,7 +1126,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45">
@@ -1020,7 +1134,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46">
@@ -1028,7 +1142,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47">
@@ -1036,7 +1150,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48">
@@ -1044,7 +1158,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49">
@@ -1052,7 +1166,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50">
@@ -1060,7 +1174,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51">
@@ -1068,7 +1182,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52">
@@ -1076,7 +1190,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53">
@@ -1084,7 +1198,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54">
@@ -1092,7 +1206,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55">
@@ -1100,7 +1214,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56">
@@ -1108,7 +1222,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57">
@@ -1116,7 +1230,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58">
@@ -1124,7 +1238,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59">
@@ -1132,7 +1246,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60">
@@ -1140,7 +1254,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61">
@@ -1148,7 +1262,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62">
@@ -1156,7 +1270,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63">
@@ -1164,7 +1278,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64">
@@ -1172,7 +1286,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65">
@@ -1180,7 +1294,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66">
@@ -1188,7 +1302,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="67">
@@ -1196,7 +1310,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68">
@@ -1204,7 +1318,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69">
@@ -1212,7 +1326,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70">
@@ -1220,7 +1334,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71">
@@ -1228,7 +1342,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72">
@@ -1236,7 +1350,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73">
@@ -1244,7 +1358,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74">
@@ -1252,7 +1366,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75">
@@ -1260,7 +1374,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76">
@@ -1268,7 +1382,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77">
@@ -1276,7 +1390,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78">
@@ -1284,7 +1398,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79">
@@ -1292,7 +1406,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="80">
@@ -1300,7 +1414,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81">
@@ -1308,7 +1422,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="82">
@@ -1316,7 +1430,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -1324,7 +1438,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84">
@@ -1332,7 +1446,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85">
@@ -1340,7 +1454,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86">
@@ -1348,7 +1462,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87">
@@ -1356,7 +1470,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
@@ -1364,7 +1478,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -1372,7 +1486,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -1380,7 +1494,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91">
@@ -1388,7 +1502,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92">
@@ -1396,7 +1510,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93">
@@ -1404,7 +1518,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94">
@@ -1412,7 +1526,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95">
@@ -1420,7 +1534,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96">
@@ -1428,7 +1542,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97">
@@ -1436,7 +1550,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98">
@@ -1444,7 +1558,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99">
@@ -1452,7 +1566,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100">
@@ -1460,7 +1574,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101">
@@ -1468,7 +1582,159 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>200</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/laliga_match_urls.xlsx
+++ b/laliga_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
   <si>
     <t>x</t>
   </si>
@@ -374,6 +374,30 @@
     <t>119</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/32bb9a67/Athletic-Club-Getafe-August-15-2024-La-Liga</t>
   </si>
   <si>
@@ -729,6 +753,30 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/abe69737/Rayo-Vallecano-Las-Palmas-November-8-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/79bd89e0/Real-Madrid-Osasuna-November-9-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/570273ee/Villarreal-Alaves-November-9-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7925ae38/Leganes-Sevilla-November-9-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2307f9b9/Real-Betis-Celta-Vigo-November-10-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f6040fa5/Mallorca-Atletico-Madrid-November-10-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/26d75d6d/Getafe-Girona-November-10-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/57eb3b4f/Valladolid-Athletic-Club-November-10-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5f83ac85/Real-Sociedad-Barcelona-November-10-2024-La-Liga</t>
   </si>
 </sst>
 </file>
@@ -790,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
@@ -798,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
@@ -806,7 +854,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +862,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6">
@@ -822,7 +870,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7">
@@ -830,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8">
@@ -838,7 +886,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +894,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10">
@@ -854,7 +902,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
@@ -862,7 +910,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
@@ -870,7 +918,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
@@ -878,7 +926,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
@@ -886,7 +934,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
@@ -894,7 +942,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
@@ -902,7 +950,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +958,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18">
@@ -918,7 +966,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19">
@@ -926,7 +974,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20">
@@ -934,7 +982,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21">
@@ -942,7 +990,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22">
@@ -950,7 +998,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23">
@@ -958,7 +1006,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24">
@@ -966,7 +1014,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25">
@@ -974,7 +1022,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26">
@@ -982,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27">
@@ -990,7 +1038,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28">
@@ -998,7 +1046,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29">
@@ -1006,7 +1054,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30">
@@ -1014,7 +1062,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31">
@@ -1022,7 +1070,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32">
@@ -1030,7 +1078,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33">
@@ -1038,7 +1086,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34">
@@ -1046,7 +1094,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35">
@@ -1054,7 +1102,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36">
@@ -1062,7 +1110,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37">
@@ -1070,7 +1118,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38">
@@ -1078,7 +1126,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39">
@@ -1086,7 +1134,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40">
@@ -1094,7 +1142,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41">
@@ -1102,7 +1150,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42">
@@ -1110,7 +1158,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43">
@@ -1118,7 +1166,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44">
@@ -1126,7 +1174,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45">
@@ -1134,7 +1182,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46">
@@ -1142,7 +1190,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47">
@@ -1150,7 +1198,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48">
@@ -1158,7 +1206,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49">
@@ -1166,7 +1214,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50">
@@ -1174,7 +1222,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51">
@@ -1182,7 +1230,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52">
@@ -1190,7 +1238,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53">
@@ -1198,7 +1246,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54">
@@ -1206,7 +1254,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55">
@@ -1214,7 +1262,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56">
@@ -1222,7 +1270,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57">
@@ -1230,7 +1278,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58">
@@ -1238,7 +1286,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59">
@@ -1246,7 +1294,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60">
@@ -1254,7 +1302,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61">
@@ -1262,7 +1310,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62">
@@ -1270,7 +1318,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63">
@@ -1278,7 +1326,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64">
@@ -1286,7 +1334,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65">
@@ -1294,7 +1342,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66">
@@ -1302,7 +1350,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67">
@@ -1310,7 +1358,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68">
@@ -1318,7 +1366,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69">
@@ -1326,7 +1374,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70">
@@ -1334,7 +1382,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71">
@@ -1342,7 +1390,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72">
@@ -1350,7 +1398,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73">
@@ -1358,7 +1406,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74">
@@ -1366,7 +1414,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75">
@@ -1374,7 +1422,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76">
@@ -1382,7 +1430,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77">
@@ -1390,7 +1438,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78">
@@ -1398,7 +1446,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79">
@@ -1406,7 +1454,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80">
@@ -1414,7 +1462,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81">
@@ -1422,7 +1470,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82">
@@ -1430,7 +1478,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83">
@@ -1438,7 +1486,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84">
@@ -1446,7 +1494,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85">
@@ -1454,7 +1502,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86">
@@ -1462,7 +1510,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87">
@@ -1470,7 +1518,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88">
@@ -1478,7 +1526,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89">
@@ -1486,7 +1534,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90">
@@ -1494,7 +1542,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91">
@@ -1502,7 +1550,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92">
@@ -1510,7 +1558,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93">
@@ -1518,7 +1566,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94">
@@ -1526,7 +1574,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95">
@@ -1534,7 +1582,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96">
@@ -1542,7 +1590,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97">
@@ -1550,7 +1598,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98">
@@ -1558,7 +1606,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99">
@@ -1566,7 +1614,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100">
@@ -1574,7 +1622,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101">
@@ -1582,7 +1630,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="102">
@@ -1590,7 +1638,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="103">
@@ -1598,7 +1646,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104">
@@ -1606,7 +1654,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105">
@@ -1614,7 +1662,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="106">
@@ -1622,7 +1670,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="107">
@@ -1630,7 +1678,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108">
@@ -1638,7 +1686,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="109">
@@ -1646,7 +1694,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110">
@@ -1654,7 +1702,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="111">
@@ -1662,7 +1710,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="112">
@@ -1670,7 +1718,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="113">
@@ -1678,7 +1726,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114">
@@ -1686,7 +1734,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115">
@@ -1694,7 +1742,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="116">
@@ -1702,7 +1750,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="117">
@@ -1710,7 +1758,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="118">
@@ -1718,7 +1766,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="119">
@@ -1726,7 +1774,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="120">
@@ -1734,7 +1782,71 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>238</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/laliga_match_urls.xlsx
+++ b/laliga_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="339">
   <si>
     <t>x</t>
   </si>
@@ -398,6 +398,132 @@
     <t>127</t>
   </si>
   <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/32bb9a67/Athletic-Club-Getafe-August-15-2024-La-Liga</t>
   </si>
   <si>
@@ -777,6 +903,132 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/5f83ac85/Real-Sociedad-Barcelona-November-10-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7f56d98f/Getafe-Valladolid-November-22-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/818dc175/Valencia-Real-Betis-November-23-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/27871b65/Atletico-Madrid-Alaves-November-23-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/243cb41c/Las-Palmas-Mallorca-November-23-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cdb994ab/Girona-Espanyol-November-23-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ffb1fa1d/Celta-Vigo-Barcelona-November-23-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e5de943f/Osasuna-Villarreal-November-24-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e88639fb/Sevilla-Rayo-Vallecano-November-24-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e2ee9d3d/Leganes-Real-Madrid-November-24-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fa0d939a/Athletic-Club-Real-Sociedad-November-24-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fc79d1e0/Mallorca-Valencia-November-29-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/00bca7c4/Barcelona-Las-Palmas-November-30-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/62f87a02/Alaves-Leganes-November-30-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2f5ca11f/Espanyol-Celta-Vigo-November-30-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/34a6798a/Valladolid-Atletico-Madrid-November-30-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0b823038/Villarreal-Girona-December-1-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6e3da6f1/Real-Madrid-Getafe-December-1-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8dcf829f/Rayo-Vallecano-Athletic-Club-December-1-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/11bcd802/Real-Sociedad-Real-Betis-December-1-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/018fa1b4/Sevilla-Osasuna-December-2-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fce1658d/Mallorca-Barcelona-December-3-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8eba22e2/Athletic-Club-Real-Madrid-December-4-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b53b2cc8/Celta-Vigo-Mallorca-December-6-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/036a4747/Las-Palmas-Valladolid-December-7-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fb5d09d6/Real-Betis-Barcelona-December-7-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/24f9975b/Valencia-Rayo-Vallecano-December-7-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6ebd56ef/Girona-Real-Madrid-December-7-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/37cd2f6c/Leganes-Real-Sociedad-December-8-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8f9e0139/Athletic-Club-Villarreal-December-8-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ee8fb4af/Osasuna-Alaves-December-8-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8c459ad5/Atletico-Madrid-Sevilla-December-8-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8a159d42/Getafe-Espanyol-December-9-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b7bb2f84/Valladolid-Valencia-December-13-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4525bc01/Espanyol-Osasuna-December-14-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5632f505/Mallorca-Girona-December-14-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6a475fea/Sevilla-Celta-Vigo-December-14-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/49cf201f/Rayo-Vallecano-Real-Madrid-December-14-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/25a5934a/Atletico-Madrid-Getafe-December-15-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1fe130a9/Alaves-Athletic-Club-December-15-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/11192bf0/Real-Sociedad-Las-Palmas-December-15-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2839ad16/Villarreal-Real-Betis-December-15-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e7bdcc56/Barcelona-Leganes-December-15-2024-La-Liga</t>
   </si>
 </sst>
 </file>
@@ -838,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3">
@@ -846,7 +1098,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
@@ -854,7 +1106,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5">
@@ -862,7 +1114,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
@@ -870,7 +1122,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7">
@@ -878,7 +1130,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8">
@@ -886,7 +1138,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9">
@@ -894,7 +1146,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10">
@@ -902,7 +1154,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11">
@@ -910,7 +1162,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12">
@@ -918,7 +1170,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13">
@@ -926,7 +1178,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
@@ -934,7 +1186,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15">
@@ -942,7 +1194,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
@@ -950,7 +1202,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
@@ -958,7 +1210,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
@@ -966,7 +1218,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
@@ -974,7 +1226,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
@@ -982,7 +1234,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
@@ -990,7 +1242,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
@@ -998,7 +1250,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23">
@@ -1006,7 +1258,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24">
@@ -1014,7 +1266,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
@@ -1022,7 +1274,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26">
@@ -1030,7 +1282,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
@@ -1038,7 +1290,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28">
@@ -1046,7 +1298,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29">
@@ -1054,7 +1306,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30">
@@ -1062,7 +1314,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31">
@@ -1070,7 +1322,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32">
@@ -1078,7 +1330,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33">
@@ -1086,7 +1338,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34">
@@ -1094,7 +1346,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35">
@@ -1102,7 +1354,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36">
@@ -1110,7 +1362,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37">
@@ -1118,7 +1370,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38">
@@ -1126,7 +1378,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39">
@@ -1134,7 +1386,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40">
@@ -1142,7 +1394,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41">
@@ -1150,7 +1402,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42">
@@ -1158,7 +1410,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43">
@@ -1166,7 +1418,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44">
@@ -1174,7 +1426,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45">
@@ -1182,7 +1434,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46">
@@ -1190,7 +1442,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47">
@@ -1198,7 +1450,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48">
@@ -1206,7 +1458,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49">
@@ -1214,7 +1466,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50">
@@ -1222,7 +1474,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51">
@@ -1230,7 +1482,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52">
@@ -1238,7 +1490,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53">
@@ -1246,7 +1498,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54">
@@ -1254,7 +1506,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55">
@@ -1262,7 +1514,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56">
@@ -1270,7 +1522,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57">
@@ -1278,7 +1530,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58">
@@ -1286,7 +1538,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59">
@@ -1294,7 +1546,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60">
@@ -1302,7 +1554,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61">
@@ -1310,7 +1562,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62">
@@ -1318,7 +1570,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63">
@@ -1326,7 +1578,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64">
@@ -1334,7 +1586,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65">
@@ -1342,7 +1594,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66">
@@ -1350,7 +1602,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67">
@@ -1358,7 +1610,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68">
@@ -1366,7 +1618,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69">
@@ -1374,7 +1626,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70">
@@ -1382,7 +1634,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71">
@@ -1390,7 +1642,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72">
@@ -1398,7 +1650,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
     </row>
     <row r="73">
@@ -1406,7 +1658,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74">
@@ -1414,7 +1666,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75">
@@ -1422,7 +1674,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76">
@@ -1430,7 +1682,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77">
@@ -1438,7 +1690,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78">
@@ -1446,7 +1698,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
     </row>
     <row r="79">
@@ -1454,7 +1706,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80">
@@ -1462,7 +1714,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81">
@@ -1470,7 +1722,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
     </row>
     <row r="82">
@@ -1478,7 +1730,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83">
@@ -1486,7 +1738,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84">
@@ -1494,7 +1746,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85">
@@ -1502,7 +1754,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86">
@@ -1510,7 +1762,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87">
@@ -1518,7 +1770,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
     </row>
     <row r="88">
@@ -1526,7 +1778,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89">
@@ -1534,7 +1786,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90">
@@ -1542,7 +1794,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91">
@@ -1550,7 +1802,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92">
@@ -1558,7 +1810,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93">
@@ -1566,7 +1818,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94">
@@ -1574,7 +1826,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95">
@@ -1582,7 +1834,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96">
@@ -1590,7 +1842,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97">
@@ -1598,7 +1850,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98">
@@ -1606,7 +1858,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99">
@@ -1614,7 +1866,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100">
@@ -1622,7 +1874,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
     </row>
     <row r="101">
@@ -1630,7 +1882,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102">
@@ -1638,7 +1890,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103">
@@ -1646,7 +1898,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104">
@@ -1654,7 +1906,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105">
@@ -1662,7 +1914,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
     </row>
     <row r="106">
@@ -1670,7 +1922,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
     </row>
     <row r="107">
@@ -1678,7 +1930,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108">
@@ -1686,7 +1938,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>234</v>
+        <v>276</v>
       </c>
     </row>
     <row r="109">
@@ -1694,7 +1946,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110">
@@ -1702,7 +1954,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
     </row>
     <row r="111">
@@ -1710,7 +1962,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112">
@@ -1718,7 +1970,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113">
@@ -1726,7 +1978,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>239</v>
+        <v>281</v>
       </c>
     </row>
     <row r="114">
@@ -1734,7 +1986,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
     </row>
     <row r="115">
@@ -1742,7 +1994,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
     </row>
     <row r="116">
@@ -1750,7 +2002,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
     </row>
     <row r="117">
@@ -1758,7 +2010,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118">
@@ -1766,7 +2018,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
     </row>
     <row r="119">
@@ -1774,7 +2026,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
     </row>
     <row r="120">
@@ -1782,7 +2034,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
     </row>
     <row r="121">
@@ -1790,7 +2042,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
     </row>
     <row r="122">
@@ -1798,7 +2050,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
     </row>
     <row r="123">
@@ -1806,7 +2058,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
     </row>
     <row r="124">
@@ -1814,7 +2066,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
     </row>
     <row r="125">
@@ -1822,7 +2074,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126">
@@ -1830,7 +2082,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
     </row>
     <row r="127">
@@ -1838,7 +2090,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
     </row>
     <row r="128">
@@ -1846,7 +2098,343 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>254</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/laliga_match_urls.xlsx
+++ b/laliga_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
   <si>
     <t>x</t>
   </si>
@@ -524,6 +524,42 @@
     <t>169</t>
   </si>
   <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/32bb9a67/Athletic-Club-Getafe-August-15-2024-La-Liga</t>
   </si>
   <si>
@@ -1029,6 +1065,42 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/e7bdcc56/Barcelona-Leganes-December-15-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a11727e1/Villarreal-Rayo-Vallecano-December-18-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8cc12868/Espanyol-Valencia-December-18-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0c8db441/Girona-Valladolid-December-20-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6358b738/Getafe-Mallorca-December-21-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e9fe833a/Celta-Vigo-Real-Sociedad-December-21-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7c1a412b/Osasuna-Athletic-Club-December-21-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ac04a5d2/Barcelona-Atletico-Madrid-December-21-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/45dc71b5/Valencia-Alaves-December-22-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b839d4ce/Real-Madrid-Sevilla-December-22-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ebe2bfbd/Las-Palmas-Espanyol-December-22-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/04b6223f/Leganes-Villarreal-December-22-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/aff51fb4/Real-Betis-Rayo-Vallecano-December-22-2024-La-Liga</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3">
@@ -1098,7 +1170,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4">
@@ -1106,7 +1178,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5">
@@ -1114,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
@@ -1122,7 +1194,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7">
@@ -1130,7 +1202,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1210,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9">
@@ -1146,7 +1218,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10">
@@ -1154,7 +1226,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11">
@@ -1162,7 +1234,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12">
@@ -1170,7 +1242,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13">
@@ -1178,7 +1250,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14">
@@ -1186,7 +1258,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15">
@@ -1194,7 +1266,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16">
@@ -1202,7 +1274,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17">
@@ -1210,7 +1282,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
@@ -1218,7 +1290,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19">
@@ -1226,7 +1298,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
@@ -1234,7 +1306,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
@@ -1242,7 +1314,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
@@ -1250,7 +1322,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
@@ -1258,7 +1330,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24">
@@ -1266,7 +1338,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25">
@@ -1274,7 +1346,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1354,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27">
@@ -1290,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28">
@@ -1298,7 +1370,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29">
@@ -1306,7 +1378,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30">
@@ -1314,7 +1386,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31">
@@ -1322,7 +1394,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1402,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33">
@@ -1338,7 +1410,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34">
@@ -1346,7 +1418,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35">
@@ -1354,7 +1426,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1434,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37">
@@ -1370,7 +1442,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38">
@@ -1378,7 +1450,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39">
@@ -1386,7 +1458,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40">
@@ -1394,7 +1466,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41">
@@ -1402,7 +1474,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42">
@@ -1410,7 +1482,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43">
@@ -1418,7 +1490,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44">
@@ -1426,7 +1498,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45">
@@ -1434,7 +1506,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46">
@@ -1442,7 +1514,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47">
@@ -1450,7 +1522,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48">
@@ -1458,7 +1530,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49">
@@ -1466,7 +1538,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50">
@@ -1474,7 +1546,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51">
@@ -1482,7 +1554,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52">
@@ -1490,7 +1562,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53">
@@ -1498,7 +1570,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54">
@@ -1506,7 +1578,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55">
@@ -1514,7 +1586,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="56">
@@ -1522,7 +1594,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57">
@@ -1530,7 +1602,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58">
@@ -1538,7 +1610,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59">
@@ -1546,7 +1618,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60">
@@ -1554,7 +1626,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61">
@@ -1562,7 +1634,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62">
@@ -1570,7 +1642,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63">
@@ -1578,7 +1650,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64">
@@ -1586,7 +1658,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65">
@@ -1594,7 +1666,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66">
@@ -1602,7 +1674,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67">
@@ -1610,7 +1682,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68">
@@ -1618,7 +1690,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69">
@@ -1626,7 +1698,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70">
@@ -1634,7 +1706,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71">
@@ -1642,7 +1714,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72">
@@ -1650,7 +1722,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73">
@@ -1658,7 +1730,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74">
@@ -1666,7 +1738,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75">
@@ -1674,7 +1746,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76">
@@ -1682,7 +1754,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77">
@@ -1690,7 +1762,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78">
@@ -1698,7 +1770,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79">
@@ -1706,7 +1778,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80">
@@ -1714,7 +1786,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81">
@@ -1722,7 +1794,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82">
@@ -1730,7 +1802,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83">
@@ -1738,7 +1810,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="84">
@@ -1746,7 +1818,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85">
@@ -1754,7 +1826,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="86">
@@ -1762,7 +1834,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87">
@@ -1770,7 +1842,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="88">
@@ -1778,7 +1850,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89">
@@ -1786,7 +1858,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="90">
@@ -1794,7 +1866,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91">
@@ -1802,7 +1874,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92">
@@ -1810,7 +1882,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93">
@@ -1818,7 +1890,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94">
@@ -1826,7 +1898,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95">
@@ -1834,7 +1906,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96">
@@ -1842,7 +1914,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97">
@@ -1850,7 +1922,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98">
@@ -1858,7 +1930,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99">
@@ -1866,7 +1938,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100">
@@ -1874,7 +1946,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101">
@@ -1882,7 +1954,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102">
@@ -1890,7 +1962,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="103">
@@ -1898,7 +1970,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104">
@@ -1906,7 +1978,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105">
@@ -1914,7 +1986,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106">
@@ -1922,7 +1994,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="107">
@@ -1930,7 +2002,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="108">
@@ -1938,7 +2010,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="109">
@@ -1946,7 +2018,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="110">
@@ -1954,7 +2026,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="111">
@@ -1962,7 +2034,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="112">
@@ -1970,7 +2042,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113">
@@ -1978,7 +2050,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="114">
@@ -1986,7 +2058,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="115">
@@ -1994,7 +2066,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="116">
@@ -2002,7 +2074,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="117">
@@ -2010,7 +2082,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="118">
@@ -2018,7 +2090,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="119">
@@ -2026,7 +2098,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="120">
@@ -2034,7 +2106,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="121">
@@ -2042,7 +2114,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="122">
@@ -2050,7 +2122,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="123">
@@ -2058,7 +2130,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="124">
@@ -2066,7 +2138,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="125">
@@ -2074,7 +2146,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="126">
@@ -2082,7 +2154,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="127">
@@ -2090,7 +2162,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="128">
@@ -2098,7 +2170,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="129">
@@ -2106,7 +2178,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="130">
@@ -2114,7 +2186,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="131">
@@ -2122,7 +2194,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="132">
@@ -2130,7 +2202,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="133">
@@ -2138,7 +2210,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="134">
@@ -2146,7 +2218,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="135">
@@ -2154,7 +2226,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="136">
@@ -2162,7 +2234,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="137">
@@ -2170,7 +2242,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="138">
@@ -2178,7 +2250,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="139">
@@ -2186,7 +2258,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="140">
@@ -2194,7 +2266,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="141">
@@ -2202,7 +2274,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142">
@@ -2210,7 +2282,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="143">
@@ -2218,7 +2290,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="144">
@@ -2226,7 +2298,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="145">
@@ -2234,7 +2306,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="146">
@@ -2242,7 +2314,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="147">
@@ -2250,7 +2322,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="148">
@@ -2258,7 +2330,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="149">
@@ -2266,7 +2338,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="150">
@@ -2274,7 +2346,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="151">
@@ -2282,7 +2354,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="152">
@@ -2290,7 +2362,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="153">
@@ -2298,7 +2370,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="154">
@@ -2306,7 +2378,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="155">
@@ -2314,7 +2386,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="156">
@@ -2322,7 +2394,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="157">
@@ -2330,7 +2402,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="158">
@@ -2338,7 +2410,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="159">
@@ -2346,7 +2418,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="160">
@@ -2354,7 +2426,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="161">
@@ -2362,7 +2434,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="162">
@@ -2370,7 +2442,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="163">
@@ -2378,7 +2450,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="164">
@@ -2386,7 +2458,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="165">
@@ -2394,7 +2466,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="166">
@@ -2402,7 +2474,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="167">
@@ -2410,7 +2482,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="168">
@@ -2418,7 +2490,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="169">
@@ -2426,7 +2498,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="170">
@@ -2434,7 +2506,103 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>338</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/laliga_match_urls.xlsx
+++ b/laliga_match_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="519">
   <si>
     <t>x</t>
   </si>
@@ -560,6 +560,240 @@
     <t>181</t>
   </si>
   <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/32bb9a67/Athletic-Club-Getafe-August-15-2024-La-Liga</t>
   </si>
   <si>
@@ -1101,6 +1335,240 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/aff51fb4/Real-Betis-Rayo-Vallecano-December-22-2024-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/15e84040/Valencia-Real-Madrid-January-3-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e55b978c/Rayo-Vallecano-Celta-Vigo-January-10-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/66b19e25/Alaves-Girona-January-11-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e9c90680/Valladolid-Real-Betis-January-11-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4fb3dc98/Espanyol-Leganes-January-11-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7652232d/Sevilla-Valencia-January-11-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e1cfa735/Las-Palmas-Getafe-January-12-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2367dade/Atletico-Madrid-Osasuna-January-12-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ecd47b8a/Real-Sociedad-Villarreal-January-13-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/75d8fa7a/Espanyol-Valladolid-January-17-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5dbf000f/Girona-Sevilla-January-18-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7ba8b655/Leganes-Atletico-Madrid-January-18-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fe96c24b/Real-Betis-Alaves-January-18-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ac3f8e9a/Getafe-Barcelona-January-18-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a5448163/Celta-Vigo-Athletic-Club-January-19-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c8f36a4b/Real-Madrid-Las-Palmas-January-19-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b85ff6cf/Osasuna-Rayo-Vallecano-January-19-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b0b640d3/Valencia-Real-Sociedad-January-19-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fd632e2f/Villarreal-Mallorca-January-20-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/28b22659/Las-Palmas-Osasuna-January-24-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2395eb39/Mallorca-Real-Betis-January-25-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6566ae8c/Atletico-Madrid-Villarreal-January-25-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/10db0915/Sevilla-Espanyol-January-25-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/382d5e03/Valladolid-Real-Madrid-January-25-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/af7b751a/Rayo-Vallecano-Girona-January-26-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2450ca46/Real-Sociedad-Getafe-January-26-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f17ca419/Athletic-Club-Leganes-January-26-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/77dda45d/Barcelona-Valencia-January-26-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b418c449/Alaves-Celta-Vigo-January-27-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/43d7418a/Leganes-Rayo-Vallecano-January-31-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b992fee4/Getafe-Sevilla-February-1-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0688f714/Villarreal-Valladolid-February-1-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/15ceb2e9/Atletico-Madrid-Mallorca-February-1-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bb8e8b39/Espanyol-Real-Madrid-February-1-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5dd33e2b/Barcelona-Alaves-February-2-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/85f339a3/Valencia-Celta-Vigo-February-2-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2b4789d5/Osasuna-Real-Sociedad-February-2-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dc8dc26b/Real-Betis-Athletic-Club-February-2-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0a6de3d3/Girona-Las-Palmas-February-3-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7bfbe87f/Rayo-Vallecano-Valladolid-February-7-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7d25dd93/Celta-Vigo-Real-Betis-February-8-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/87b1fc3e/Athletic-Club-Girona-February-8-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/117692e2/Las-Palmas-Villarreal-February-8-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/442c5b57/El-Derbi-Madrileno-Real-Madrid-Atletico-Madrid-February-8-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/39db2a13/Alaves-Getafe-February-9-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/89c7a794/Valencia-Leganes-February-9-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/39cd05e4/Real-Sociedad-Espanyol-February-9-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/57bc3e19/Sevilla-Barcelona-February-9-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/64cac73e/Mallorca-Osasuna-February-10-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2702096e/Girona-Getafe-February-14-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5bf2e4ce/Leganes-Alaves-February-15-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c667c7ca/Osasuna-Real-Madrid-February-15-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ec6e214e/Atletico-Madrid-Celta-Vigo-February-15-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/71df1d23/Villarreal-Valencia-February-15-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d0f5d736/Espanyol-Athletic-Club-February-16-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fbad97f4/Valladolid-Sevilla-February-16-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/041d6702/Mallorca-Las-Palmas-February-16-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f7ee4708/Real-Betis-Real-Sociedad-February-16-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b299fca9/Barcelona-Rayo-Vallecano-February-17-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/138c629e/Celta-Vigo-Osasuna-February-21-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/776298df/Alaves-Espanyol-February-22-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4d0c9845/Rayo-Vallecano-Villarreal-February-22-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cc85a3d4/Valencia-Atletico-Madrid-February-22-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6b455e82/Las-Palmas-Barcelona-February-22-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e42061f0/Athletic-Club-Valladolid-February-23-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9289e6ed/Real-Madrid-Girona-February-23-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/738f8f85/Getafe-Real-Betis-February-23-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1182bc6e/Real-Sociedad-Leganes-February-23-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/409ec366/Sevilla-Mallorca-February-24-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d3f13884/Valladolid-Las-Palmas-February-28-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3865f1d2/Girona-Celta-Vigo-March-1-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3736c3d4/Rayo-Vallecano-Sevilla-March-1-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f1e4f58c/Real-Betis-Real-Madrid-March-1-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1971e698/Atletico-Madrid-Athletic-Club-March-1-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f079fabc/Leganes-Getafe-March-2-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0b2c987f/Barcelona-Real-Sociedad-March-2-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6c84aa28/Mallorca-Alaves-March-2-2025-La-Liga</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0580ab96/Osasuna-Valencia-March-2-2025-La-Liga</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3">
@@ -1170,7 +1638,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4">
@@ -1178,7 +1646,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5">
@@ -1186,7 +1654,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6">
@@ -1194,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7">
@@ -1202,7 +1670,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8">
@@ -1210,7 +1678,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9">
@@ -1218,7 +1686,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10">
@@ -1226,7 +1694,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11">
@@ -1234,7 +1702,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12">
@@ -1242,7 +1710,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13">
@@ -1250,7 +1718,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14">
@@ -1258,7 +1726,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15">
@@ -1266,7 +1734,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>195</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16">
@@ -1274,7 +1742,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>196</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17">
@@ -1282,7 +1750,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18">
@@ -1290,7 +1758,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19">
@@ -1298,7 +1766,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20">
@@ -1306,7 +1774,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>200</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21">
@@ -1314,7 +1782,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>201</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22">
@@ -1322,7 +1790,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>202</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23">
@@ -1330,7 +1798,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24">
@@ -1338,7 +1806,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>204</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25">
@@ -1346,7 +1814,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26">
@@ -1354,7 +1822,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27">
@@ -1362,7 +1830,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28">
@@ -1370,7 +1838,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29">
@@ -1378,7 +1846,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30">
@@ -1386,7 +1854,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31">
@@ -1394,7 +1862,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32">
@@ -1402,7 +1870,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33">
@@ -1410,7 +1878,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>213</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
@@ -1418,7 +1886,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>214</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35">
@@ -1426,7 +1894,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>215</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36">
@@ -1434,7 +1902,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37">
@@ -1442,7 +1910,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38">
@@ -1450,7 +1918,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>218</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39">
@@ -1458,7 +1926,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>219</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40">
@@ -1466,7 +1934,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>220</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41">
@@ -1474,7 +1942,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>221</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42">
@@ -1482,7 +1950,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>222</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43">
@@ -1490,7 +1958,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>223</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44">
@@ -1498,7 +1966,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>224</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45">
@@ -1506,7 +1974,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>225</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46">
@@ -1514,7 +1982,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>226</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47">
@@ -1522,7 +1990,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48">
@@ -1530,7 +1998,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>228</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49">
@@ -1538,7 +2006,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50">
@@ -1546,7 +2014,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>230</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51">
@@ -1554,7 +2022,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52">
@@ -1562,7 +2030,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>232</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53">
@@ -1570,7 +2038,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54">
@@ -1578,7 +2046,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>234</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55">
@@ -1586,7 +2054,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56">
@@ -1594,7 +2062,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>236</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57">
@@ -1602,7 +2070,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58">
@@ -1610,7 +2078,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
     </row>
     <row r="59">
@@ -1618,7 +2086,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>239</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60">
@@ -1626,7 +2094,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>240</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61">
@@ -1634,7 +2102,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>241</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62">
@@ -1642,7 +2110,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>242</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63">
@@ -1650,7 +2118,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>243</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64">
@@ -1658,7 +2126,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>244</v>
+        <v>322</v>
       </c>
     </row>
     <row r="65">
@@ -1666,7 +2134,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>245</v>
+        <v>323</v>
       </c>
     </row>
     <row r="66">
@@ -1674,7 +2142,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>246</v>
+        <v>324</v>
       </c>
     </row>
     <row r="67">
@@ -1682,7 +2150,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>247</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68">
@@ -1690,7 +2158,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>248</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69">
@@ -1698,7 +2166,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>249</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70">
@@ -1706,7 +2174,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>250</v>
+        <v>328</v>
       </c>
     </row>
     <row r="71">
@@ -1714,7 +2182,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>251</v>
+        <v>329</v>
       </c>
     </row>
     <row r="72">
@@ -1722,7 +2190,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>252</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73">
@@ -1730,7 +2198,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>253</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74">
@@ -1738,7 +2206,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75">
@@ -1746,7 +2214,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>255</v>
+        <v>333</v>
       </c>
     </row>
     <row r="76">
@@ -1754,7 +2222,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>256</v>
+        <v>334</v>
       </c>
     </row>
     <row r="77">
@@ -1762,7 +2230,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>257</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78">
@@ -1770,7 +2238,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>258</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79">
@@ -1778,7 +2246,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>259</v>
+        <v>337</v>
       </c>
     </row>
     <row r="80">
@@ -1786,7 +2254,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>260</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81">
@@ -1794,7 +2262,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>261</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82">
@@ -1802,7 +2270,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83">
@@ -1810,7 +2278,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>263</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84">
@@ -1818,7 +2286,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>264</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85">
@@ -1826,7 +2294,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>265</v>
+        <v>343</v>
       </c>
     </row>
     <row r="86">
@@ -1834,7 +2302,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>266</v>
+        <v>344</v>
       </c>
     </row>
     <row r="87">
@@ -1842,7 +2310,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>267</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88">
@@ -1850,7 +2318,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>268</v>
+        <v>346</v>
       </c>
     </row>
     <row r="89">
@@ -1858,7 +2326,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>269</v>
+        <v>347</v>
       </c>
     </row>
     <row r="90">
@@ -1866,7 +2334,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>270</v>
+        <v>348</v>
       </c>
     </row>
     <row r="91">
@@ -1874,7 +2342,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>271</v>
+        <v>349</v>
       </c>
     </row>
     <row r="92">
@@ -1882,7 +2350,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>272</v>
+        <v>350</v>
       </c>
     </row>
     <row r="93">
@@ -1890,7 +2358,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
     </row>
     <row r="94">
@@ -1898,7 +2366,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>274</v>
+        <v>352</v>
       </c>
     </row>
     <row r="95">
@@ -1906,7 +2374,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
     </row>
     <row r="96">
@@ -1914,7 +2382,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
     </row>
     <row r="97">
@@ -1922,7 +2390,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
     </row>
     <row r="98">
@@ -1930,7 +2398,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
     </row>
     <row r="99">
@@ -1938,7 +2406,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>279</v>
+        <v>357</v>
       </c>
     </row>
     <row r="100">
@@ -1946,7 +2414,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>280</v>
+        <v>358</v>
       </c>
     </row>
     <row r="101">
@@ -1954,7 +2422,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>281</v>
+        <v>359</v>
       </c>
     </row>
     <row r="102">
@@ -1962,7 +2430,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>282</v>
+        <v>360</v>
       </c>
     </row>
     <row r="103">
@@ -1970,7 +2438,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>283</v>
+        <v>361</v>
       </c>
     </row>
     <row r="104">
@@ -1978,7 +2446,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>284</v>
+        <v>362</v>
       </c>
     </row>
     <row r="105">
@@ -1986,7 +2454,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>285</v>
+        <v>363</v>
       </c>
     </row>
     <row r="106">
@@ -1994,7 +2462,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>286</v>
+        <v>364</v>
       </c>
     </row>
     <row r="107">
@@ -2002,7 +2470,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>287</v>
+        <v>365</v>
       </c>
     </row>
     <row r="108">
@@ -2010,7 +2478,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>288</v>
+        <v>366</v>
       </c>
     </row>
     <row r="109">
@@ -2018,7 +2486,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>289</v>
+        <v>367</v>
       </c>
     </row>
     <row r="110">
@@ -2026,7 +2494,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>290</v>
+        <v>368</v>
       </c>
     </row>
     <row r="111">
@@ -2034,7 +2502,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>291</v>
+        <v>369</v>
       </c>
     </row>
     <row r="112">
@@ -2042,7 +2510,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>292</v>
+        <v>370</v>
       </c>
     </row>
     <row r="113">
@@ -2050,7 +2518,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>293</v>
+        <v>371</v>
       </c>
     </row>
     <row r="114">
@@ -2058,7 +2526,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>294</v>
+        <v>372</v>
       </c>
     </row>
     <row r="115">
@@ -2066,7 +2534,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>295</v>
+        <v>373</v>
       </c>
     </row>
     <row r="116">
@@ -2074,7 +2542,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>296</v>
+        <v>374</v>
       </c>
     </row>
     <row r="117">
@@ -2082,7 +2550,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>297</v>
+        <v>375</v>
       </c>
     </row>
     <row r="118">
@@ -2090,7 +2558,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>298</v>
+        <v>376</v>
       </c>
     </row>
     <row r="119">
@@ -2098,7 +2566,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>299</v>
+        <v>377</v>
       </c>
     </row>
     <row r="120">
@@ -2106,7 +2574,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>300</v>
+        <v>378</v>
       </c>
     </row>
     <row r="121">
@@ -2114,7 +2582,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>301</v>
+        <v>379</v>
       </c>
     </row>
     <row r="122">
@@ -2122,7 +2590,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>302</v>
+        <v>380</v>
       </c>
     </row>
     <row r="123">
@@ -2130,7 +2598,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>303</v>
+        <v>381</v>
       </c>
     </row>
     <row r="124">
@@ -2138,7 +2606,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
     </row>
     <row r="125">
@@ -2146,7 +2614,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>305</v>
+        <v>383</v>
       </c>
     </row>
     <row r="126">
@@ -2154,7 +2622,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>306</v>
+        <v>384</v>
       </c>
     </row>
     <row r="127">
@@ -2162,7 +2630,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>307</v>
+        <v>385</v>
       </c>
     </row>
     <row r="128">
@@ -2170,7 +2638,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>308</v>
+        <v>386</v>
       </c>
     </row>
     <row r="129">
@@ -2178,7 +2646,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>309</v>
+        <v>387</v>
       </c>
     </row>
     <row r="130">
@@ -2186,7 +2654,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>310</v>
+        <v>388</v>
       </c>
     </row>
     <row r="131">
@@ -2194,7 +2662,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>311</v>
+        <v>389</v>
       </c>
     </row>
     <row r="132">
@@ -2202,7 +2670,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>312</v>
+        <v>390</v>
       </c>
     </row>
     <row r="133">
@@ -2210,7 +2678,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>313</v>
+        <v>391</v>
       </c>
     </row>
     <row r="134">
@@ -2218,7 +2686,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>314</v>
+        <v>392</v>
       </c>
     </row>
     <row r="135">
@@ -2226,7 +2694,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>315</v>
+        <v>393</v>
       </c>
     </row>
     <row r="136">
@@ -2234,7 +2702,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>316</v>
+        <v>394</v>
       </c>
     </row>
     <row r="137">
@@ -2242,7 +2710,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>317</v>
+        <v>395</v>
       </c>
     </row>
     <row r="138">
@@ -2250,7 +2718,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>318</v>
+        <v>396</v>
       </c>
     </row>
     <row r="139">
@@ -2258,7 +2726,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>319</v>
+        <v>397</v>
       </c>
     </row>
     <row r="140">
@@ -2266,7 +2734,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>320</v>
+        <v>398</v>
       </c>
     </row>
     <row r="141">
@@ -2274,7 +2742,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>321</v>
+        <v>399</v>
       </c>
     </row>
     <row r="142">
@@ -2282,7 +2750,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>322</v>
+        <v>400</v>
       </c>
     </row>
     <row r="143">
@@ -2290,7 +2758,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>323</v>
+        <v>401</v>
       </c>
     </row>
     <row r="144">
@@ -2298,7 +2766,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>324</v>
+        <v>402</v>
       </c>
     </row>
     <row r="145">
@@ -2306,7 +2774,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>325</v>
+        <v>403</v>
       </c>
     </row>
     <row r="146">
@@ -2314,7 +2782,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>326</v>
+        <v>404</v>
       </c>
     </row>
     <row r="147">
@@ -2322,7 +2790,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>327</v>
+        <v>405</v>
       </c>
     </row>
     <row r="148">
@@ -2330,7 +2798,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>328</v>
+        <v>406</v>
       </c>
     </row>
     <row r="149">
@@ -2338,7 +2806,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>329</v>
+        <v>407</v>
       </c>
     </row>
     <row r="150">
@@ -2346,7 +2814,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>330</v>
+        <v>408</v>
       </c>
     </row>
     <row r="151">
@@ -2354,7 +2822,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>331</v>
+        <v>409</v>
       </c>
     </row>
     <row r="152">
@@ -2362,7 +2830,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>332</v>
+        <v>410</v>
       </c>
     </row>
     <row r="153">
@@ -2370,7 +2838,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>333</v>
+        <v>411</v>
       </c>
     </row>
     <row r="154">
@@ -2378,7 +2846,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>334</v>
+        <v>412</v>
       </c>
     </row>
     <row r="155">
@@ -2386,7 +2854,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>335</v>
+        <v>413</v>
       </c>
     </row>
     <row r="156">
@@ -2394,7 +2862,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>336</v>
+        <v>414</v>
       </c>
     </row>
     <row r="157">
@@ -2402,7 +2870,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>337</v>
+        <v>415</v>
       </c>
     </row>
     <row r="158">
@@ -2410,7 +2878,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>338</v>
+        <v>416</v>
       </c>
     </row>
     <row r="159">
@@ -2418,7 +2886,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>339</v>
+        <v>417</v>
       </c>
     </row>
     <row r="160">
@@ -2426,7 +2894,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>340</v>
+        <v>418</v>
       </c>
     </row>
     <row r="161">
@@ -2434,7 +2902,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>341</v>
+        <v>419</v>
       </c>
     </row>
     <row r="162">
@@ -2442,7 +2910,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>342</v>
+        <v>420</v>
       </c>
     </row>
     <row r="163">
@@ -2450,7 +2918,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>343</v>
+        <v>421</v>
       </c>
     </row>
     <row r="164">
@@ -2458,7 +2926,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>344</v>
+        <v>422</v>
       </c>
     </row>
     <row r="165">
@@ -2466,7 +2934,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>345</v>
+        <v>423</v>
       </c>
     </row>
     <row r="166">
@@ -2474,7 +2942,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>346</v>
+        <v>424</v>
       </c>
     </row>
     <row r="167">
@@ -2482,7 +2950,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>347</v>
+        <v>425</v>
       </c>
     </row>
     <row r="168">
@@ -2490,7 +2958,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>348</v>
+        <v>426</v>
       </c>
     </row>
     <row r="169">
@@ -2498,7 +2966,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>349</v>
+        <v>427</v>
       </c>
     </row>
     <row r="170">
@@ -2506,7 +2974,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>350</v>
+        <v>428</v>
       </c>
     </row>
     <row r="171">
@@ -2514,7 +2982,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>351</v>
+        <v>429</v>
       </c>
     </row>
     <row r="172">
@@ -2522,7 +2990,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>352</v>
+        <v>430</v>
       </c>
     </row>
     <row r="173">
@@ -2530,7 +2998,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>353</v>
+        <v>431</v>
       </c>
     </row>
     <row r="174">
@@ -2538,7 +3006,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>354</v>
+        <v>432</v>
       </c>
     </row>
     <row r="175">
@@ -2546,7 +3014,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
     </row>
     <row r="176">
@@ -2554,7 +3022,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>356</v>
+        <v>434</v>
       </c>
     </row>
     <row r="177">
@@ -2562,7 +3030,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>357</v>
+        <v>435</v>
       </c>
     </row>
     <row r="178">
@@ -2570,7 +3038,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>358</v>
+        <v>436</v>
       </c>
     </row>
     <row r="179">
@@ -2578,7 +3046,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>359</v>
+        <v>437</v>
       </c>
     </row>
     <row r="180">
@@ -2586,7 +3054,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>360</v>
+        <v>438</v>
       </c>
     </row>
     <row r="181">
@@ -2594,7 +3062,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>361</v>
+        <v>439</v>
       </c>
     </row>
     <row r="182">
@@ -2602,7 +3070,631 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>362</v>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
